--- a/data_processing_elements-NES.xlsx
+++ b/data_processing_elements-NES.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlaforme\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F432387-F6C8-4BA4-95F6-986CC38073A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E4C3F4-B20B-4475-86BB-E330C1B31F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
   <sheets>
     <sheet name="data_processing_elements" sheetId="8" r:id="rId1"/>
@@ -1796,24 +1796,6 @@
   </si>
   <si>
     <t>as.numeric(e4)</t>
-  </si>
-  <si>
-    <t>round(rowMeans(
-mutate(.,
-e7_temp = as.numeric(e7),
-e11_temp = as.numeric(e11) ,
-e15_temp = as.numeric(e15),
-e19_temp = as.numeric(e19)) %&gt;% 
-select(e7_temp, e11_temp, e15_temp, e19_temp), na.rm = TRUE), 2)</t>
-  </si>
-  <si>
-    <t>round(rowMeans(
-mutate(.,
-e8_temp = as.numeric(e8),
-e12_temp = as.numeric(e12) ,
-e16_temp = as.numeric(e16),
-e20_temp = as.numeric(e20)) %&gt;% 
-select(e8_temp, e12_temp, e16_temp, e20_temp), na.rm = TRUE), 2)</t>
   </si>
   <si>
     <t>as.numeric(fq105)*7</t>
@@ -2846,19 +2828,6 @@
     <t>floor(as.numeric(difftime(format(as.Date(bq1, format = "%d-%m-%Y"), "%Y-%m-%d"), format(as.Date(bq2, format = "%d-%m-%Y"), "%Y-%m-%d"), units = "days"))/365.25)</t>
   </si>
   <si>
-    <t>case_when(
-fq12 == "." ~ NA_integer_;
-fq12 &gt;= 36 ~ 2L;
-fq12 &lt; 36 ~ 1L; 
-ELSE ~ NA_integer_)</t>
-  </si>
-  <si>
-    <t>case_when(
-fq12 == "." ~ NA_real_;
-fq12 &gt; 0 ~ as.numeric(fq12);
-ELSE ~ NA_real_)</t>
-  </si>
-  <si>
     <t xml:space="preserve">case_when(
 fq7 == 1 ~ 1L;
 (is.na(fq7) | fq7 == ".") &amp; fq3 == 2 ~ 0L;
@@ -2870,42 +2839,76 @@
     <t>round(e3/(e2/100)^2, 2)</t>
   </si>
   <si>
-    <t>round(rowMeans(
+    <t>as.numeric(gsub(",", ".", e29))</t>
+  </si>
+  <si>
+    <t>as.numeric(gsub(",", ".", e30))</t>
+  </si>
+  <si>
+    <t>as.numeric(gsub(",", ".", e31))</t>
+  </si>
+  <si>
+    <t>round(as.numeric(gsub(",", ".", e29)) - as.numeric(gsub(",", ".", e30)) - (as.numeric(gsub(",", ".", e32))/2.2), 2)</t>
+  </si>
+  <si>
+    <t>as.numeric(gsub(",", ".", e32))</t>
+  </si>
+  <si>
+    <t>as.numeric(e36)</t>
+  </si>
+  <si>
+    <t>case_when(
+fq109 == "." ~ NA_real_;
+fq109 &gt;= 0 ~ as.numeric(fq109)*10;
+ELSE ~ NA_real_)</t>
+  </si>
+  <si>
+    <t>case_when(
+fq61 &gt; 0 &amp; fq61 != "." ~ 1L;
+ELSE ~ 0L)</t>
+  </si>
+  <si>
+    <t>case_when(e7 == "." &amp; e11 == "." &amp; e15 == "." &amp; e19 == "." ~ NA_integer_;
+ELSE ~ round(rowMeans(
+mutate(.,
+e7_temp = as.numeric(e7),
+e11_temp = as.numeric(e11) ,
+e15_temp = as.numeric(e15),
+e19_temp = as.numeric(e19)) %&gt;% 
+select(e7_temp, e11_temp, e15_temp, e19_temp), na.rm = TRUE), 2))</t>
+  </si>
+  <si>
+    <t>case_when(e8 == ". &amp; e12 == ". &amp; e16 == ". &amp; e20 == ". ~ NA_integer_;
+ELSE ~ round(rowMeans(
+mutate(.,
+e8_temp = as.numeric(e8),
+e12_temp = as.numeric(e12) ,
+e16_temp = as.numeric(e16),
+e20_temp = as.numeric(e20)) %&gt;% 
+select(e8_temp, e12_temp, e16_temp, e20_temp), na.rm = TRUE), 2))</t>
+  </si>
+  <si>
+    <t>case_when(e9 == "." &amp; e13 == "." &amp; e17 = "." &amp; e21 == "." ~ NA_integer_;
+ELSE ~ round(rowMeans(
 mutate(.,
 e9_temp = as.numeric(e9),
 e13_temp = as.numeric(e13) ,
 e17_temp = as.numeric(e17),
 e21_temp = as.numeric(e21)) %&gt;% 
-select(e9_temp, e13_temp, e17_temp, e21_temp), na.rm = TRUE), 2)</t>
-  </si>
-  <si>
-    <t>as.numeric(gsub(",", ".", e29))</t>
-  </si>
-  <si>
-    <t>as.numeric(gsub(",", ".", e30))</t>
-  </si>
-  <si>
-    <t>as.numeric(gsub(",", ".", e31))</t>
-  </si>
-  <si>
-    <t>round(as.numeric(gsub(",", ".", e29)) - as.numeric(gsub(",", ".", e30)) - (as.numeric(gsub(",", ".", e32))/2.2), 2)</t>
-  </si>
-  <si>
-    <t>as.numeric(gsub(",", ".", e32))</t>
-  </si>
-  <si>
-    <t>as.numeric(e36)</t>
+select(e9_temp, e13_temp, e17_temp, e21_temp), na.rm = TRUE), 2))</t>
   </si>
   <si>
     <t>case_when(
-fq109 == "." ~ NA_real_;
-fq109 &gt;= 0 ~ as.numeric(fq109)*10;
+fq12 == "." ~ NA_real_ ;
+fq12 &gt; 0 ~ as.numeric(fq12);
 ELSE ~ NA_real_)</t>
   </si>
   <si>
     <t>case_when(
-fq61 &gt; 0 &amp; fq61 != "." ~ 1L;
-ELSE ~ 0L)</t>
+fq12 == "." | fq12 == "0" ~ NA_integer_;
+as.integer(fq12) &gt;= 36 ~ 2L;
+as.integer(fq12) &lt; 36 ~ 1L; 
+ELSE ~ NA_integer_)</t>
   </si>
 </sst>
 </file>
@@ -3391,7 +3394,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O2" sqref="O2:S84"/>
+      <selection pane="bottomRight" activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3696,7 +3699,7 @@
         <v>36</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
@@ -3864,7 +3867,7 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3910,7 +3913,7 @@
         <v>208</v>
       </c>
       <c r="S9" s="13" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="T9" s="6" t="s">
         <v>330</v>
@@ -3967,7 +3970,7 @@
         <v>208</v>
       </c>
       <c r="S10" s="13" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -4065,7 +4068,7 @@
         <v>208</v>
       </c>
       <c r="S12" s="13" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
@@ -4477,7 +4480,7 @@
         <v>36</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
@@ -4676,7 +4679,7 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="1:21" ht="228" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4725,15 +4728,15 @@
         <v>28</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>36</v>
+        <v>208</v>
       </c>
       <c r="S25" s="13" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="1:21" ht="228" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4782,15 +4785,15 @@
         <v>28</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>36</v>
+        <v>208</v>
       </c>
       <c r="S26" s="13" t="s">
-        <v>499</v>
+        <v>518</v>
       </c>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="1:21" ht="228" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4839,10 +4842,10 @@
         <v>28</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>36</v>
+        <v>208</v>
       </c>
       <c r="S27" s="13" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="T27" s="6" t="s">
         <v>302</v>
@@ -5097,7 +5100,7 @@
         <v>36</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
@@ -5152,7 +5155,7 @@
         <v>36</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
@@ -5207,7 +5210,7 @@
         <v>36</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
@@ -5264,7 +5267,7 @@
         <v>36</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
@@ -5319,7 +5322,7 @@
         <v>36</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
@@ -5374,7 +5377,7 @@
         <v>36</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
@@ -5666,7 +5669,7 @@
         <v>208</v>
       </c>
       <c r="S43" s="13" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="T43" s="6" t="s">
         <v>392</v>
@@ -5885,7 +5888,7 @@
         <v>36</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
@@ -5992,7 +5995,7 @@
         <v>208</v>
       </c>
       <c r="S49" s="13" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
@@ -6047,7 +6050,7 @@
         <v>208</v>
       </c>
       <c r="S50" s="13" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
@@ -7022,7 +7025,7 @@
         <v>244</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="K70" s="13" t="s">
         <v>449</v>
@@ -7045,7 +7048,7 @@
         <v>208</v>
       </c>
       <c r="S70" s="13" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="T70" s="6" t="s">
         <v>452</v>
@@ -7185,7 +7188,7 @@
         <v>252</v>
       </c>
       <c r="J73" s="13" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="K73" s="13" t="s">
         <v>460</v>
@@ -7208,7 +7211,7 @@
         <v>208</v>
       </c>
       <c r="S73" s="13" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="T73" s="6" t="s">
         <v>463</v>
@@ -7312,7 +7315,7 @@
         <v>208</v>
       </c>
       <c r="S75" s="13" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="T75" s="6" t="s">
         <v>468</v>
@@ -7566,7 +7569,7 @@
         <v>208</v>
       </c>
       <c r="S80" s="13" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>

--- a/data_processing_elements-NES.xlsx
+++ b/data_processing_elements-NES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E4C3F4-B20B-4475-86BB-E330C1B31F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725EB02E-4184-493C-B056-6F762991DCB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
@@ -2878,7 +2878,20 @@
 select(e7_temp, e11_temp, e15_temp, e19_temp), na.rm = TRUE), 2))</t>
   </si>
   <si>
-    <t>case_when(e8 == ". &amp; e12 == ". &amp; e16 == ". &amp; e20 == ". ~ NA_integer_;
+    <t>case_when(
+fq12 == "." ~ NA_real_ ;
+fq12 &gt; 0 ~ as.numeric(fq12);
+ELSE ~ NA_real_)</t>
+  </si>
+  <si>
+    <t>case_when(
+fq12 == "." | fq12 == "0" ~ NA_integer_;
+as.integer(fq12) &gt;= 36 ~ 2L;
+as.integer(fq12) &lt; 36 ~ 1L; 
+ELSE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>case_when(e8 == "." &amp; e12 == "." &amp; e16 == "." &amp; e20 == "." ~ NA_integer_;
 ELSE ~ round(rowMeans(
 mutate(.,
 e8_temp = as.numeric(e8),
@@ -2888,7 +2901,7 @@
 select(e8_temp, e12_temp, e16_temp, e20_temp), na.rm = TRUE), 2))</t>
   </si>
   <si>
-    <t>case_when(e9 == "." &amp; e13 == "." &amp; e17 = "." &amp; e21 == "." ~ NA_integer_;
+    <t>case_when(e9 == "." &amp; e13 == "." &amp; e17 == "." &amp; e21 == "." ~ NA_integer_;
 ELSE ~ round(rowMeans(
 mutate(.,
 e9_temp = as.numeric(e9),
@@ -2896,19 +2909,6 @@
 e17_temp = as.numeric(e17),
 e21_temp = as.numeric(e21)) %&gt;% 
 select(e9_temp, e13_temp, e17_temp, e21_temp), na.rm = TRUE), 2))</t>
-  </si>
-  <si>
-    <t>case_when(
-fq12 == "." ~ NA_real_ ;
-fq12 &gt; 0 ~ as.numeric(fq12);
-ELSE ~ NA_real_)</t>
-  </si>
-  <si>
-    <t>case_when(
-fq12 == "." | fq12 == "0" ~ NA_integer_;
-as.integer(fq12) &gt;= 36 ~ 2L;
-as.integer(fq12) &lt; 36 ~ 1L; 
-ELSE ~ NA_integer_)</t>
   </si>
 </sst>
 </file>
@@ -3391,10 +3391,10 @@
   <dimension ref="A1:U84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S5" sqref="S5"/>
+      <selection pane="bottomRight" activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3913,7 +3913,7 @@
         <v>208</v>
       </c>
       <c r="S9" s="13" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="T9" s="6" t="s">
         <v>330</v>
@@ -3970,7 +3970,7 @@
         <v>208</v>
       </c>
       <c r="S10" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -4788,7 +4788,7 @@
         <v>208</v>
       </c>
       <c r="S26" s="13" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
@@ -4845,7 +4845,7 @@
         <v>208</v>
       </c>
       <c r="S27" s="13" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="T27" s="6" t="s">
         <v>302</v>

--- a/data_processing_elements-NES.xlsx
+++ b/data_processing_elements-NES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725EB02E-4184-493C-B056-6F762991DCB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5441A05E-3EB2-41BE-A5F9-C050EB309865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
@@ -3391,10 +3391,10 @@
   <dimension ref="A1:U84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M27" sqref="M27"/>
+      <selection pane="bottomRight" activeCell="T91" sqref="T91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4306,7 +4306,7 @@
         <v>97</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>59</v>
+        <v>340</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -4408,7 +4408,7 @@
         <v>97</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>59</v>
+        <v>343</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>

--- a/data_processing_elements-NES.xlsx
+++ b/data_processing_elements-NES.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5441A05E-3EB2-41BE-A5F9-C050EB309865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D886E7A1-8659-4296-849C-AC372801F8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
@@ -3391,10 +3391,10 @@
   <dimension ref="A1:U84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T91" sqref="T91"/>
+      <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4725,7 +4725,7 @@
         <v>27</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="R25" s="1" t="s">
         <v>208</v>
@@ -4782,7 +4782,7 @@
         <v>27</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="R26" s="1" t="s">
         <v>208</v>
@@ -4839,7 +4839,7 @@
         <v>27</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="R27" s="1" t="s">
         <v>208</v>
@@ -7616,7 +7616,7 @@
         <v>27</v>
       </c>
       <c r="Q81" s="1" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="R81" s="1" t="s">
         <v>208</v>
